--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>06/02/2019 1:28:56</t>
-  </si>
-  <si>
-    <t>01:28:56.7141664</t>
+    <t>06/02/2019 1:34:54</t>
+  </si>
+  <si>
+    <t>01:34:54.6403468</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>06/02/2019 1:34:54</t>
-  </si>
-  <si>
-    <t>01:34:54.6403468</t>
+    <t>06/02/2019 1:39:41</t>
+  </si>
+  <si>
+    <t>01:39:41.5823946</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>06/02/2019 1:39:41</t>
-  </si>
-  <si>
-    <t>01:39:41.5823946</t>
+    <t>06/02/2019 2:15:37</t>
+  </si>
+  <si>
+    <t>02:15:37.5271303</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>11/02/2019 1:02:02</t>
-  </si>
-  <si>
-    <t>01:02:02.3097767</t>
+    <t>15/02/2019 14:42:12</t>
+  </si>
+  <si>
+    <t>14:42:12.2618586</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>15/02/2019 14:42:12</t>
-  </si>
-  <si>
-    <t>14:42:12.2618586</t>
+    <t>16/02/2019 3:02:45</t>
+  </si>
+  <si>
+    <t>03:02:45.4770213</t>
   </si>
   <si>
     <t>To:</t>
